--- a/Bank/中医内科学/胃/Bank_痢疾.xlsx
+++ b/Bank/中医内科学/胃/Bank_痢疾.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="181">
   <si>
     <t>痢疾专著《痢疾论》出现于何朝代</t>
   </si>
@@ -553,19 +564,318 @@
   </si>
   <si>
     <t>ACD</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <r>
+      <t>诊断：痢疾（湿热壅滞兼阴血亏虚）。病证分析：具有腹痛腹泻，邪壅肠腑，传导失职之表现；有脂膜血络受损，大便带黏液脓血的特有主症；大便赤多白少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明热重湿轻；热灼阴伤而见口干，苔少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉细。治法：清热化湿，调气行血，佐以养阴。方药：芍药汤合驻车丸加减。黄连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄苓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>6g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当归</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>6g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白芍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>20g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>木香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>6g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枳壳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>6g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金银花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>20g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丹皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>麦冬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石斛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>3g</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,11 +898,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -872,13 +1183,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -894,6 +1205,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
       <c r="H1" t="s">
         <v>10</v>
       </c>
@@ -904,7 +1218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -920,6 +1234,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
@@ -930,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -946,6 +1263,9 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
@@ -956,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -972,6 +1292,9 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -998,6 +1321,9 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1024,6 +1350,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -1050,6 +1379,9 @@
       <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1076,6 +1408,9 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -1102,6 +1437,9 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1128,6 +1466,9 @@
       <c r="F10" t="s">
         <v>54</v>
       </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -1154,6 +1495,9 @@
       <c r="F11" t="s">
         <v>59</v>
       </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -1180,6 +1524,9 @@
       <c r="F12" t="s">
         <v>64</v>
       </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -1206,6 +1553,9 @@
       <c r="F13" t="s">
         <v>69</v>
       </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>70</v>
       </c>
@@ -1232,6 +1582,9 @@
       <c r="F14" t="s">
         <v>74</v>
       </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -1258,6 +1611,9 @@
       <c r="F15" t="s">
         <v>79</v>
       </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
       <c r="H15" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>80</v>
       </c>
@@ -1284,6 +1640,9 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
       <c r="H16" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>81</v>
       </c>
@@ -1310,6 +1669,9 @@
       <c r="F17" t="s">
         <v>82</v>
       </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>83</v>
       </c>
@@ -1336,6 +1698,9 @@
       <c r="F18" t="s">
         <v>87</v>
       </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
       <c r="H18" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -1362,6 +1727,9 @@
       <c r="F19" t="s">
         <v>92</v>
       </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +1740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>93</v>
       </c>
@@ -1388,6 +1756,9 @@
       <c r="F20" t="s">
         <v>87</v>
       </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
       <c r="H20" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1414,6 +1785,9 @@
       <c r="F21" t="s">
         <v>100</v>
       </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
       <c r="H21" t="s">
         <v>174</v>
       </c>
@@ -1427,7 +1801,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>102</v>
       </c>
@@ -1443,6 +1817,9 @@
       <c r="F22" t="s">
         <v>105</v>
       </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
       <c r="H22" t="s">
         <v>174</v>
       </c>
@@ -1456,7 +1833,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>108</v>
       </c>
@@ -1472,6 +1849,9 @@
       <c r="F23" t="s">
         <v>112</v>
       </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
       <c r="H23" t="s">
         <v>174</v>
       </c>
@@ -1485,7 +1865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>117</v>
       </c>
@@ -1501,6 +1881,9 @@
       <c r="F24" t="s">
         <v>45</v>
       </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
       <c r="H24" t="s">
         <v>174</v>
       </c>
@@ -1514,7 +1897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>121</v>
       </c>
@@ -1530,6 +1913,9 @@
       <c r="F25" t="s">
         <v>124</v>
       </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
       <c r="H25" t="s">
         <v>174</v>
       </c>
@@ -1543,7 +1929,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>127</v>
       </c>
@@ -1559,6 +1945,9 @@
       <c r="F26" t="s">
         <v>130</v>
       </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
       <c r="H26" t="s">
         <v>174</v>
       </c>
@@ -1572,7 +1961,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>133</v>
       </c>
@@ -1588,6 +1977,9 @@
       <c r="F27" t="s">
         <v>136</v>
       </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
       <c r="H27" t="s">
         <v>174</v>
       </c>
@@ -1601,7 +1993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>137</v>
       </c>
@@ -1617,6 +2009,9 @@
       <c r="F28" t="s">
         <v>141</v>
       </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
       <c r="H28" t="s">
         <v>174</v>
       </c>
@@ -1630,7 +2025,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>143</v>
       </c>
@@ -1646,6 +2041,9 @@
       <c r="F29" t="s">
         <v>147</v>
       </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
       <c r="H29" t="s">
         <v>174</v>
       </c>
@@ -1659,7 +2057,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>149</v>
       </c>
@@ -1675,6 +2073,9 @@
       <c r="F30" t="s">
         <v>153</v>
       </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
         <v>174</v>
       </c>
@@ -1688,7 +2089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>156</v>
       </c>
@@ -1704,6 +2105,9 @@
       <c r="F31" t="s">
         <v>113</v>
       </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
       <c r="H31" t="s">
         <v>174</v>
       </c>
@@ -1717,76 +2121,97 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>160</v>
       </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>161</v>
       </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>162</v>
       </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>163</v>
       </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>32</v>
       </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>29</v>
       </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>164</v>
       </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
       <c r="H38" t="s">
         <v>175</v>
       </c>
@@ -1794,10 +2219,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>165</v>
       </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
       <c r="H39" t="s">
         <v>175</v>
       </c>
@@ -1805,10 +2233,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>166</v>
       </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
       <c r="H40" t="s">
         <v>175</v>
       </c>
@@ -1816,10 +2247,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>167</v>
       </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
       <c r="H41" t="s">
         <v>175</v>
       </c>
@@ -1827,10 +2261,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>168</v>
       </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
       <c r="H42" t="s">
         <v>175</v>
       </c>
@@ -1838,10 +2275,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>169</v>
       </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
       <c r="H43" t="s">
         <v>175</v>
       </c>
@@ -1849,10 +2289,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>170</v>
       </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
       <c r="H44" t="s">
         <v>175</v>
       </c>
@@ -1860,10 +2303,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>171</v>
       </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
       <c r="H45" t="s">
         <v>175</v>
       </c>
@@ -1871,10 +2317,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>172</v>
       </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
       <c r="H46" t="s">
         <v>175</v>
       </c>
@@ -1882,15 +2331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="19" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>173</v>
       </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J47">
         <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
